--- a/results/ROI_greedy/dataset_09/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_09/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,67 +579,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I2">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="P2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q2">
-        <v>1.699951919974932</v>
+        <v>1.860752340715006</v>
       </c>
       <c r="R2">
-        <v>105.4018270409526</v>
+        <v>99.89893445997981</v>
       </c>
       <c r="S2">
-        <v>5.473684210526316</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="T2">
-        <v>6.15625</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="U2">
-        <v>1.817467825938262</v>
+        <v>1.860752340715006</v>
       </c>
       <c r="V2">
-        <v>106.8410295699756</v>
+        <v>99.89893445997981</v>
       </c>
       <c r="W2">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="X2">
         <v>838</v>
       </c>
       <c r="Y2">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="Z2">
-        <v>1.00748502994012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -659,67 +659,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>0.9619047619047619</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="O3">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="P3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Q3">
-        <v>1.632694774598368</v>
+        <v>1.684590634813445</v>
       </c>
       <c r="R3">
-        <v>126.7325664954833</v>
+        <v>110.9317839726487</v>
       </c>
       <c r="S3">
-        <v>5.117647058823529</v>
+        <v>5.390243902439025</v>
       </c>
       <c r="T3">
-        <v>5.697674418604652</v>
+        <v>6.290322580645161</v>
       </c>
       <c r="U3">
-        <v>1.740058094851165</v>
+        <v>1.839012354078601</v>
       </c>
       <c r="V3">
-        <v>127.1775019213999</v>
+        <v>106.9906170235634</v>
       </c>
       <c r="W3">
-        <v>783</v>
+        <v>821</v>
       </c>
       <c r="X3">
         <v>985</v>
       </c>
       <c r="Y3">
-        <v>775</v>
+        <v>805</v>
       </c>
       <c r="Z3">
-        <v>1.010322580645161</v>
+        <v>1.019875776397515</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -739,67 +739,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="H4">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
-        <v>0.8141025641025641</v>
+        <v>0.8458781362007168</v>
       </c>
       <c r="O4">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="P4">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Q4">
-        <v>1.757857917552374</v>
+        <v>1.884034745337226</v>
       </c>
       <c r="R4">
-        <v>197.7392353590957</v>
+        <v>184.7982627331387</v>
       </c>
       <c r="S4">
-        <v>5.8</v>
+        <v>6.58</v>
       </c>
       <c r="T4">
-        <v>10.40740740740741</v>
+        <v>12.23809523809524</v>
       </c>
       <c r="U4">
-        <v>2.342517803329417</v>
+        <v>2.504553647171797</v>
       </c>
       <c r="V4">
-        <v>190.7520193101058</v>
+        <v>183.4043734093923</v>
       </c>
       <c r="W4">
-        <v>1134</v>
+        <v>1152</v>
       </c>
       <c r="X4">
         <v>1388</v>
       </c>
       <c r="Y4">
-        <v>1076</v>
+        <v>1109</v>
       </c>
       <c r="Z4">
-        <v>1.053903345724907</v>
+        <v>1.038773669972949</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -819,67 +819,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="H5">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>0.7891891891891892</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="O5">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="P5">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q5">
-        <v>1.313881783551414</v>
+        <v>1.65455834771457</v>
       </c>
       <c r="R5">
-        <v>95.65603871850388</v>
+        <v>100.4722244391318</v>
       </c>
       <c r="S5">
-        <v>3.720588235294118</v>
+        <v>5.230769230769231</v>
       </c>
       <c r="T5">
-        <v>6.407407407407407</v>
+        <v>7.05</v>
       </c>
       <c r="U5">
-        <v>1.85745472849345</v>
+        <v>1.953027616824177</v>
       </c>
       <c r="V5">
-        <v>95.84872233067685</v>
+        <v>81.93944766351646</v>
       </c>
       <c r="W5">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="X5">
         <v>691</v>
       </c>
       <c r="Y5">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="Z5">
-        <v>1.077075098814229</v>
+        <v>1.083650190114068</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -899,67 +899,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I6">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
-        <v>0.9447852760736196</v>
+        <v>0.9513888888888888</v>
       </c>
       <c r="O6">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="P6">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q6">
-        <v>1.32513993796656</v>
+        <v>1.299282984130261</v>
       </c>
       <c r="R6">
-        <v>84.81674365997296</v>
+        <v>73.83871885696591</v>
       </c>
       <c r="S6">
-        <v>3.76271186440678</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="T6">
-        <v>4.347826086956522</v>
+        <v>5.029411764705882</v>
       </c>
       <c r="U6">
-        <v>1.469675970058942</v>
+        <v>1.615303031886498</v>
       </c>
       <c r="V6">
-        <v>86.39490537728868</v>
+        <v>82.07969691585905</v>
       </c>
       <c r="W6">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="X6">
         <v>818</v>
       </c>
       <c r="Y6">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="Z6">
-        <v>1.013740458015267</v>
+        <v>1.010385756676558</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -979,67 +979,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>0.7071823204419889</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="O7">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="P7">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q7">
-        <v>1.227689330943252</v>
+        <v>1.376244025266389</v>
       </c>
       <c r="R7">
-        <v>88.92330017925609</v>
+        <v>79.18779873668053</v>
       </c>
       <c r="S7">
-        <v>3.413333333333334</v>
+        <v>3.96</v>
       </c>
       <c r="T7">
-        <v>5.923076923076923</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="U7">
-        <v>1.778856064392147</v>
+        <v>1.815289966638249</v>
       </c>
       <c r="V7">
-        <v>81.74974232580416</v>
+        <v>69.87891070059678</v>
       </c>
       <c r="W7">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="X7">
         <v>1147</v>
       </c>
       <c r="Y7">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="Z7">
-        <v>1.054865424430642</v>
+        <v>1.04004004004004</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1059,67 +1059,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
-        <v>0.6864864864864865</v>
+        <v>0.7197452229299363</v>
       </c>
       <c r="O8">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="P8">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="Q8">
-        <v>1.347073647966609</v>
+        <v>1.362874086911792</v>
       </c>
       <c r="R8">
-        <v>97.44021288217039</v>
+        <v>83.40479930676322</v>
       </c>
       <c r="S8">
-        <v>3.846153846153846</v>
+        <v>3.907407407407407</v>
       </c>
       <c r="T8">
-        <v>6.08</v>
+        <v>6.65</v>
       </c>
       <c r="U8">
-        <v>1.805004695978076</v>
+        <v>1.894616854667763</v>
       </c>
       <c r="V8">
-        <v>81.8748826005481</v>
+        <v>75.10766290664475</v>
       </c>
       <c r="W8">
-        <v>927</v>
+        <v>941</v>
       </c>
       <c r="X8">
         <v>1054</v>
       </c>
       <c r="Y8">
-        <v>869</v>
+        <v>897</v>
       </c>
       <c r="Z8">
-        <v>1.066743383199079</v>
+        <v>1.049052396878484</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1139,67 +1139,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I9">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
-        <v>0.9545454545454546</v>
+        <v>0.8914728682170543</v>
       </c>
       <c r="O9">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="P9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q9">
-        <v>1.734601055388106</v>
+        <v>1.695299203040493</v>
       </c>
       <c r="R9">
-        <v>96.75816517219249</v>
+        <v>79.83632311182572</v>
       </c>
       <c r="S9">
-        <v>5.666666666666667</v>
+        <v>5.448275862068965</v>
       </c>
       <c r="T9">
-        <v>6.653846153846154</v>
+        <v>7.052631578947368</v>
       </c>
       <c r="U9">
-        <v>1.895195056476297</v>
+        <v>1.953400820784471</v>
       </c>
       <c r="V9">
-        <v>97.72492853161629</v>
+        <v>77.88538440509505</v>
       </c>
       <c r="W9">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="X9">
         <v>885</v>
       </c>
       <c r="Y9">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="Z9">
-        <v>1.009575923392613</v>
+        <v>1.018518518518519</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,67 +1219,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I10">
+        <v>78</v>
+      </c>
+      <c r="J10">
+        <v>0.08</v>
+      </c>
+      <c r="K10">
         <v>103</v>
       </c>
-      <c r="J10">
-        <v>0.1</v>
-      </c>
-      <c r="K10">
-        <v>122</v>
-      </c>
       <c r="L10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
-        <v>0.8442622950819673</v>
+        <v>0.7572815533980582</v>
       </c>
       <c r="O10">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="P10">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q10">
-        <v>1.109662124854695</v>
+        <v>1.273965176145971</v>
       </c>
       <c r="R10">
-        <v>55.42027250871831</v>
+        <v>52.04139295416116</v>
       </c>
       <c r="S10">
-        <v>3.033333333333333</v>
+        <v>3.575</v>
       </c>
       <c r="T10">
-        <v>4.21875</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="U10">
-        <v>1.439538875638703</v>
+        <v>1.514127732629776</v>
       </c>
       <c r="V10">
-        <v>56.93475597956151</v>
+        <v>44.68918988214494</v>
       </c>
       <c r="W10">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="X10">
         <v>779</v>
       </c>
       <c r="Y10">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="Z10">
-        <v>1.028919330289193</v>
+        <v>1.03698224852071</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1299,67 +1299,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="H11">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I11">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.9122807017543859</v>
+        <v>0.9025974025974026</v>
       </c>
       <c r="O11">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="P11">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q11">
-        <v>1.551255957051365</v>
+        <v>1.619909212301396</v>
       </c>
       <c r="R11">
-        <v>99.64222597563723</v>
+        <v>92.44344993254697</v>
       </c>
       <c r="S11">
-        <v>4.717391304347826</v>
+        <v>5.052631578947368</v>
       </c>
       <c r="T11">
-        <v>5</v>
+        <v>5.483870967741935</v>
       </c>
       <c r="U11">
-        <v>1.6094379124341</v>
+        <v>1.701811232565115</v>
       </c>
       <c r="V11">
-        <v>93.23192141507009</v>
+        <v>86.24385179048141</v>
       </c>
       <c r="W11">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="X11">
         <v>943</v>
       </c>
       <c r="Y11">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="Z11">
-        <v>1.019430051813472</v>
+        <v>1.019011406844107</v>
       </c>
     </row>
   </sheetData>
